--- a/data/income_statement/2digits/size/21_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/21_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>21-Manufacture of basic pharmaceutical products and pharmaceutical preparations</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>21-Manufacture of basic pharmaceutical products and pharmaceutical preparations</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,287 +841,327 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>15555.37905</v>
+        <v>16360.93722</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>13705.2647</v>
+        <v>17307.84842</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>21502.94465</v>
+        <v>24274.14795</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>21574.87896</v>
+        <v>25502.31208</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>24713.24836</v>
+        <v>30867.82391</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>22666.00315</v>
+        <v>30365.85878</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>23298.13481</v>
+        <v>32912.82291</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>29499.06866</v>
+        <v>39476.21654</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>35438.77570000001</v>
+        <v>45040.50262</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>94180.15484</v>
+        <v>113199.23258</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>126256.07962</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>156515.84529</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>306724.659</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>14657.09536</v>
+        <v>15461.40353</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>12751.59384</v>
+        <v>15963.93131</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>20426.52729</v>
+        <v>23005.63573</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>20377.70331</v>
+        <v>23633.37727</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>22076.87827</v>
+        <v>28029.63958</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>19684.7598</v>
+        <v>26511.9246</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>20485.59358</v>
+        <v>29881.62471</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>25247.39263</v>
+        <v>33703.47315999999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>26993.04776</v>
+        <v>35780.27177000001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>76555.22842</v>
+        <v>92188.47103</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>110497.26632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>135270.90633</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>268424.577</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>579.5585600000001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>352.69856</v>
+        <v>463.05956</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>597.6729499999999</v>
+        <v>787.67092</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>623.44183</v>
+        <v>1072.98873</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2103.53636</v>
+        <v>2178.49893</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2214.05518</v>
+        <v>2459.93843</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1736.49395</v>
+        <v>1885.25754</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>3420.10641</v>
+        <v>4624.6043</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>7080.74033</v>
+        <v>7296.04472</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>15237.96226</v>
+        <v>17648.99594</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>11801.26848</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16403.95332</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>31949.967</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>318.72513</v>
+        <v>319.97513</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>600.9723</v>
+        <v>880.8575500000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>478.74441</v>
+        <v>480.8413</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>573.7338199999999</v>
+        <v>795.9460799999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>532.8337299999999</v>
+        <v>659.6854000000001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>767.18817</v>
+        <v>1393.99575</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1076.04728</v>
+        <v>1145.94066</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>831.56962</v>
+        <v>1148.13908</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1364.98761</v>
+        <v>1964.18613</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2386.96416</v>
+        <v>3361.76561</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>3957.54482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4840.98564</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>6350.115</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>473.54407</v>
+        <v>476.40557</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>250.1168</v>
+        <v>296.87488</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>330.12353</v>
+        <v>350.62587</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>669.31687</v>
+        <v>846.92494</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>654.02072</v>
+        <v>1345.13298</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1394.24514</v>
+        <v>1596.86096</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>336.03121</v>
+        <v>780.2073800000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>245.35813</v>
+        <v>500.79715</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1801.11716</v>
+        <v>1969.26696</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2415.08258</v>
+        <v>2928.20917</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>3265.18999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3823.12105</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>92707.747</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>392.91554</v>
+        <v>395.77704</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>183.67872</v>
+        <v>192.9376</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>232.26044</v>
+        <v>252.76278</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>485.035</v>
+        <v>609.93763</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>471.07275</v>
+        <v>1042.52673</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1022.84575</v>
+        <v>1073.1211</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>248.75048</v>
+        <v>420.89791</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>204.44941</v>
+        <v>450.44876</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1194.49658</v>
+        <v>1284.91571</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1786.30134</v>
+        <v>2285.70747</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2259.01268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2808.92952</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>91984.28</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>49.8361</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>33.39773</v>
+        <v>70.89693</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>85.60867</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>144.45686</v>
+        <v>197.1623</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>174.29313</v>
+        <v>283.30456</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>371.39939</v>
+        <v>488.689</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>83.14442</v>
+        <v>355.17316</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>10.37238</v>
+        <v>19.81205</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>596.3300400000001</v>
+        <v>634.08117</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>564.33387</v>
+        <v>577.06073</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>909.1094399999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>911.1651899999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>535.816</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>30.79243</v>
@@ -1235,10 +1176,10 @@
         <v>39.82501</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>8.65484</v>
+        <v>19.30169</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>0</v>
+        <v>35.05086</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>4.136310000000001</v>
@@ -1247,526 +1188,596 @@
         <v>30.53634</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>10.29054</v>
+        <v>50.27008</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>64.44737000000001</v>
+        <v>65.44097000000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>97.06787</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>103.02634</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>187.651</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>15081.83498</v>
+        <v>15884.53165</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>13455.1479</v>
+        <v>17010.97354</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>21172.82112</v>
+        <v>23923.52208</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>20905.56209</v>
+        <v>24655.38714</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>24059.22764</v>
+        <v>29522.69093</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>21271.75801</v>
+        <v>28768.99782</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>22962.1036</v>
+        <v>32132.61553</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>29253.71053</v>
+        <v>38975.41939</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>33637.65854</v>
+        <v>43071.23566</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>91765.07226</v>
+        <v>110271.02341</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>122990.88963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>152692.72424</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>214016.912</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>8744.10312</v>
+        <v>8963.352650000001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>8245.54333</v>
+        <v>10461.747</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>14786.59879</v>
+        <v>16696.04395</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>13848.76675</v>
+        <v>16642.49682</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>14586.54753</v>
+        <v>17814.58812</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>13937.76429</v>
+        <v>18478.70706</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>15923.91774</v>
+        <v>21758.15749</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>19889.11185</v>
+        <v>26496.5016</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>20052.44792</v>
+        <v>26240.25191</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>62758.32614</v>
+        <v>76898.15298999999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>84572.75603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>104306.94587</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>148277.861</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>5504.06711</v>
+        <v>5683.08615</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4608.384929999999</v>
+        <v>5591.70238</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>4890.7436</v>
+        <v>6097.78466</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>5439.85075</v>
+        <v>7480.58188</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>7179.78424</v>
+        <v>9911.155419999999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>7042.95578</v>
+        <v>10143.3989</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>6111.751389999999</v>
+        <v>10635.29737</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>10423.38282</v>
+        <v>14141.66377</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>7965.92589</v>
+        <v>11398.03814</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>23651.76859</v>
+        <v>30983.4643</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>32419.30503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>40452.08711</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>56665.161</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>2625.81499</v>
+        <v>2650.63074</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>3024.84995</v>
+        <v>3626.34294</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>9178.48257</v>
+        <v>9474.661699999999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>5703.19307</v>
+        <v>5921.58388</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>6819.763980000001</v>
+        <v>7032.9899</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>6680.761759999999</v>
+        <v>7867.73987</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>9467.25057</v>
+        <v>10248.2551</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>9154.093130000001</v>
+        <v>11704.82711</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>11225.1858</v>
+        <v>13047.08142</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>36059.19867000001</v>
+        <v>42217.41224000001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>46423.00531</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>57569.70063</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>72680.524</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>562.47397</v>
+        <v>576.73911</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>612.30845</v>
+        <v>1091.23268</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>705.5733299999999</v>
+        <v>1111.7983</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2704.22293</v>
+        <v>3100.21706</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>586.3057299999999</v>
+        <v>786.7915400000001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>214.04675</v>
+        <v>467.56829</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>315.03453</v>
+        <v>816.5059399999999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>311.6359</v>
+        <v>650.01072</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>761.33623</v>
+        <v>1176.54922</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2892.22299</v>
+        <v>3047.24524</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4797.51375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4982.16095</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>15508.724</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>51.74705</v>
+        <v>52.89665</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>0</v>
+        <v>152.469</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>11.79929</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1.5</v>
+        <v>140.114</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>0.6935800000000001</v>
+        <v>83.65125999999999</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>29.88125</v>
+        <v>58.09908</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>100</v>
+        <v>618.58313</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>155.13589</v>
+        <v>650.03121</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>932.9319399999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1302.99718</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>3423.452</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>6337.731860000001</v>
+        <v>6921.179</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>5209.60457</v>
+        <v>6549.22654</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>6386.222330000001</v>
+        <v>7227.47813</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>7056.79534</v>
+        <v>8012.89032</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>9472.680109999999</v>
+        <v>11708.10281</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>7333.993719999999</v>
+        <v>10290.29076</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>7038.185860000001</v>
+        <v>10374.45804</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>9364.598679999999</v>
+        <v>12478.91779</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>13585.21062</v>
+        <v>16830.98375</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>29006.74612</v>
+        <v>33372.87042</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>38418.1336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>48385.77837</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>65739.05100000001</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>5117.351320000001</v>
+        <v>6703.57216</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>4642.03901</v>
+        <v>9034.1216</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>6288.74026</v>
+        <v>8489.1916</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>9865.59649</v>
+        <v>14015.34595</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>8753.373519999999</v>
+        <v>15747.21492</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>9840.016170000001</v>
+        <v>13793.96035</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>9150.04401</v>
+        <v>14772.8896</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>10612.29961</v>
+        <v>16691.58595</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>14513.87159</v>
+        <v>23660.12956</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>25481.30697</v>
+        <v>34693.78885</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>33477.95504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>46521.7655</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>55372.602</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>473.00456</v>
+        <v>698.42589</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>614.25741</v>
+        <v>626.4405300000001</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>776.69076</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>303.05849</v>
+        <v>321.29562</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>55.90434</v>
+        <v>226.96847</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>349.50905</v>
+        <v>366.78404</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>57.19701</v>
+        <v>65.56600999999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>109.57796</v>
+        <v>279.67901</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>232.69143</v>
+        <v>389.8445</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>226.83142</v>
+        <v>266.62662</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>431.30594</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>697.30043</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2252.292</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1027.55477</v>
+        <v>1055.64692</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>788.73682</v>
+        <v>2072.7208</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>912.49788</v>
+        <v>933.40799</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2422.61383</v>
+        <v>2710.42565</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2210.75954</v>
+        <v>3342.77287</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2626.29199</v>
+        <v>3405.59041</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1592.39247</v>
+        <v>2225.16811</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1798.53047</v>
+        <v>2091.7088</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>2633.42469</v>
+        <v>3269.87038</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>6524.72925</v>
+        <v>9208.575289999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>7212.156950000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>8170.38625</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>14305.158</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>3616.79199</v>
+        <v>4949.49935</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>3239.04478</v>
+        <v>6334.96027</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>4599.55162</v>
+        <v>6779.09285</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>7139.92417</v>
+        <v>10983.62468</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>6486.70964</v>
+        <v>12177.47358</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>6864.21513</v>
+        <v>10021.5859</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>7500.45453</v>
+        <v>12482.15548</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>8704.19118</v>
+        <v>14320.19814</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>11647.75547</v>
+        <v>20000.41468</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>18729.7463</v>
+        <v>25218.58694</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>25834.49215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>37654.07882</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>38815.152</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1220.38054</v>
+        <v>217.60684</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>567.56556</v>
+        <v>-2484.89506</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>97.48207000000001</v>
+        <v>-1261.71347</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-2808.80115</v>
+        <v>-6002.455629999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>719.3065899999999</v>
+        <v>-4039.11211</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-2506.02245</v>
+        <v>-3503.66959</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-2111.85815</v>
+        <v>-4398.43156</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-1247.70093</v>
+        <v>-4212.66816</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-928.66097</v>
+        <v>-6829.14581</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3525.43915</v>
+        <v>-1320.91843</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>4940.17856</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1864.01287</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>10366.449</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>428.6932</v>
+        <v>2917.99988</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>518.13748</v>
+        <v>3490.39855</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>342.55724</v>
+        <v>2424.70734</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>546.2932499999999</v>
+        <v>183293.97485</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>566.66489</v>
+        <v>37150.46376</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>744.30652</v>
+        <v>26534.52348</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>978.11841</v>
+        <v>37700.62286</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>540.07456</v>
+        <v>33025.40325</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>979.26462</v>
+        <v>40162.99606</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1584.23134</v>
+        <v>70079.02065999999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1218.14653</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>24096.838</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>33113.471</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1784,13 +1795,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>595.62787</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>194.36673</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>0</v>
@@ -1799,13 +1810,18 @@
         <v>0</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>12000</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1820,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0</v>
+        <v>11.8727</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>8979.666999999999</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>45.63975</v>
+        <v>1924.70651</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>52.16783</v>
+        <v>1784.92206</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>48.96896</v>
+        <v>901.6254200000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>118.35394</v>
+        <v>7456.97045</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>172.61871</v>
+        <v>6734.48578</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>41.98269000000001</v>
+        <v>6881.02863</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>72.0596</v>
+        <v>6983.652059999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>63.00893</v>
+        <v>6867.15802</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>120.90182</v>
+        <v>6679.916730000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>75.43525</v>
+        <v>9661.20832</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>166.91763</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>5800.75419</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2774.64</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.02433</v>
@@ -1904,7 +1930,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>0</v>
+        <v>77.40349999999999</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>0</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>35.02</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>0.12091</v>
+        <v>17.30995</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>0</v>
@@ -1955,13 +1986,18 @@
         <v>12.19195</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>34.61899</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>72.937</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>0.07219</v>
@@ -1970,13 +2006,13 @@
         <v>0.06179</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>0.24038</v>
+        <v>56.0744</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>0</v>
+        <v>91107.76312999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2.02705</v>
+        <v>2.46817</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>2.35152</v>
@@ -1988,7 +2024,7 @@
         <v>8.19791</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>9.76474</v>
+        <v>4598.46056</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>13.43947</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>24.42482</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>1.744</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>30.9322</v>
+        <v>59.10019</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>45.0651</v>
+        <v>683.17475</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>49.96307</v>
+        <v>629.04718</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>87.97816999999999</v>
+        <v>4246.19214</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>51.70342</v>
+        <v>29835.54098</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>153.46736</v>
+        <v>18452.58417</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>274.03334</v>
+        <v>29654.36138</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>146.88064</v>
+        <v>25384.72553</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>455.85591</v>
+        <v>28020.7068</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1189.75856</v>
+        <v>60005.24498</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>566.53284</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>5571.42639</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>14393.254</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>41.545</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.01414</v>
@@ -2096,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>0</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>3.716</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>351.88968</v>
+        <v>916.77257</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>420.84276</v>
+        <v>1022.23995</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>243.38483</v>
+        <v>837.96034</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>331.0181</v>
+        <v>80474.10609</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>336.31571</v>
+        <v>562.09613</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>536.50495</v>
+        <v>550.93129</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>598.07238</v>
+        <v>951.2528299999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>315.73708</v>
+        <v>564.70506</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>342.60321</v>
+        <v>813.7730300000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>271.25614</v>
+        <v>364.78597</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>455.97124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>665.61361</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>810.948</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>780.3140999999999</v>
+        <v>1129.4448</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>44.30807</v>
+        <v>615.01195</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>207.25562</v>
+        <v>1594.68589</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>392.14832</v>
+        <v>6537.017049999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>299.72957</v>
+        <v>59290.76211</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>239.06359</v>
+        <v>13828.59002</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>437.80675</v>
+        <v>12954.52212</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>838.7131400000001</v>
+        <v>9845.215900000001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1614.78345</v>
+        <v>23090.55065</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1153.42717</v>
+        <v>30333.07997</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1408.36223</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3650.76843</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>12773.998</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0.19649</v>
@@ -2204,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1.2133</v>
+        <v>11.80652</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>0.294</v>
@@ -2213,34 +2279,39 @@
         <v>0</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>32</v>
+        <v>36.47789</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1.41575</v>
+        <v>1.88963</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>3.93816</v>
+        <v>8.63156</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2.14406</v>
+        <v>3.57593</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>0.74299</v>
+        <v>3.97401</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>0.53332</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>20.24653</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2147.438</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>16</v>
+        <v>51.186</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>102.74628</v>
@@ -2255,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>0</v>
+        <v>33.17868</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>0</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>80.00991</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>3473.545</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0.07934000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>93.976</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>32.95918</v>
+        <v>74.84291999999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>27.46154</v>
+        <v>425.5161</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>96.52136999999999</v>
+        <v>1207.77909</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>209.86853</v>
+        <v>6086.84791</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>298.17965</v>
+        <v>58843.89291</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>110.30963</v>
+        <v>13642.20755</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>429.52237</v>
+        <v>12902.1384</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>653.1574499999999</v>
+        <v>9621.19183</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1030.80525</v>
+        <v>22326.15182</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1145.22538</v>
+        <v>30319.95157</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>962.75928</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3185.1827</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>6995.348</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2366,7 +2452,7 @@
         <v>3.66834</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>0</v>
+        <v>221.71611</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>1e-05</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>747.1584200000001</v>
+        <v>1054.40538</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>0.84653</v>
+        <v>138.30985</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>6.77467</v>
+        <v>272.354</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>22.96962</v>
+        <v>290.85897</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>0.77119</v>
+        <v>224.37436</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>96.75396000000001</v>
+        <v>149.90458</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>6.86863</v>
+        <v>17.31541</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>181.61753</v>
+        <v>215.39251</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>40.97728</v>
+        <v>219.96604</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2.85605</v>
+        <v>4.55164</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>364.98038</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>365.24995</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>63.691</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>413.72652</v>
+        <v>495.1784</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>265.68705</v>
+        <v>431.40722</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>255.72758</v>
+        <v>503.26728</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>494.65518</v>
+        <v>10381.02067</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>490.9549</v>
+        <v>60376.06041</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>450.40124</v>
+        <v>767.78887</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>172.39255</v>
+        <v>527.39464</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>341.25754</v>
+        <v>536.81494</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>790.53925</v>
+        <v>2992.60999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1960.59167</v>
+        <v>2717.19907</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2414.26951</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2902.39852</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>21443.857</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>412.91022</v>
+        <v>494.3621</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>265.68705</v>
+        <v>431.40722</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>255.72758</v>
+        <v>503.26728</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>484.79186</v>
+        <v>2414.33029</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>482.31195</v>
+        <v>11923.52534</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>436.75114</v>
+        <v>754.13877</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>149.66336</v>
+        <v>471.20416</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>330.70571</v>
+        <v>526.26311</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>731.69696</v>
+        <v>2933.7677</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1874.06318</v>
+        <v>2630.67058</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2181.85103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2669.98004</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>21288.676</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0.8162999999999999</v>
@@ -2558,16 +2669,16 @@
         <v>0</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>9.86332</v>
+        <v>7966.69038</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>8.642950000000001</v>
+        <v>48452.53507</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>13.6501</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>22.72919</v>
+        <v>56.19048</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>10.55183</v>
@@ -2581,92 +2692,107 @@
       <c r="M46" s="48" t="n">
         <v>232.41848</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>155.181</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>455.03312</v>
+        <v>1510.98352</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>775.7079200000001</v>
+        <v>-40.91568</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-22.94389</v>
+        <v>-934.9593000000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-3149.3114</v>
+        <v>160373.4815</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>495.28701</v>
+        <v>-86555.47087</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-2451.18076</v>
+        <v>8434.475</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-1743.93904</v>
+        <v>19820.27454</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-1887.59705</v>
+        <v>18430.70425</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-2354.71905</v>
+        <v>7250.68961</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1995.65165</v>
+        <v>35707.82319</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2335.69335</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>19407.68392</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>9262.065000000001</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>91.31032</v>
+        <v>237.79788</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>99.25660999999999</v>
+        <v>933.42015</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>53.94039</v>
+        <v>3722.92628</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>230.04237</v>
+        <v>355.5839099999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>208.15291</v>
+        <v>52671.66046</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>137.48381</v>
+        <v>187.96315</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>116.56099</v>
+        <v>239.31125</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>176.90396</v>
+        <v>321.57668</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>368.51952</v>
+        <v>811.5980699999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1230.44152</v>
+        <v>2122.99463</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2088.71414</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2534.8636</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>884.085</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>7.61973</v>
+        <v>7.65035</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>13.89604</v>
@@ -2684,103 +2810,118 @@
         <v>0.0549</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>0</v>
+        <v>42.36651999999999</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1.90741</v>
+        <v>141.87907</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>341.28481</v>
+        <v>420.14046</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>16.25044</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>32.65031</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>83.69059</v>
+        <v>230.14753</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>85.36057000000001</v>
+        <v>919.52411</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>53.93415</v>
+        <v>3722.92004</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>230.04237</v>
+        <v>355.5839099999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>96.86897</v>
+        <v>52560.37652000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>137.42891</v>
+        <v>187.90825</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>116.56099</v>
+        <v>196.94473</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>176.90396</v>
+        <v>321.57668</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>366.61211</v>
+        <v>669.7190000000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>889.15671</v>
+        <v>1702.85417</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2072.4637</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2502.21329</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>884.085</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>100.53245</v>
+        <v>461.85553</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>635.3674100000001</v>
+        <v>6819.07746</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1183.21533</v>
+        <v>2866.77576</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>301.48184</v>
+        <v>1785.19543</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>2807.33422</v>
+        <v>4863.40554</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>801.11717</v>
+        <v>2609.31249</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>302.98299</v>
+        <v>1441.25469</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1740.23495</v>
+        <v>5061.75344</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>994.17538</v>
+        <v>1879.39281</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2700.99438</v>
+        <v>28572.34421</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1158.15554</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1501.33981</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>3445.635</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2792,22 +2933,22 @@
         <v>0</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>0</v>
+        <v>472.37388</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>84.94883999999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>80.29525</v>
+        <v>305.70005</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>133.34824</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>136.53631</v>
+        <v>449.77246</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>119.27999</v>
+        <v>422.00389</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>139.01818</v>
@@ -2815,17 +2956,22 @@
       <c r="M52" s="48" t="n">
         <v>137.29069</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>146.695</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>19.86163</v>
+        <v>19.90875</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>13.7749</v>
+        <v>14.99404</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>37.61617</v>
@@ -2834,184 +2980,207 @@
         <v>6.4457</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>6.51668</v>
+        <v>6.62737</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3.69347</v>
+        <v>122.33469</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3.0823</v>
+        <v>8.458200000000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>175.94667</v>
+        <v>177.66823</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>14.91785</v>
+        <v>20.81803</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>38.06964</v>
+        <v>250.74972</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>187.70447</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>125.41062</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>78.619</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>80.67082000000001</v>
+        <v>441.94678</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>621.5925100000001</v>
+        <v>6804.08342</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1145.59916</v>
+        <v>2829.15959</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>295.03614</v>
+        <v>1306.37585</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>2715.8687</v>
+        <v>4771.82933</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>717.1284499999999</v>
+        <v>2181.27775</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>166.55245</v>
+        <v>1299.44825</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1427.75197</v>
+        <v>4434.31275</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>859.9775400000001</v>
+        <v>1436.57089</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2523.90656</v>
+        <v>28182.57631</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>833.16038</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1238.6385</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>3220.321</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>445.81099</v>
+        <v>1286.92587</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>239.59712</v>
+        <v>-5926.572990000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-1152.21883</v>
+        <v>-78.80878</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-3220.75087</v>
+        <v>158943.86998</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-2103.8943</v>
+        <v>-38747.21595000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-3114.81412</v>
+        <v>6013.12566</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-1930.36104</v>
+        <v>18618.3311</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-3450.92804</v>
+        <v>13690.52749</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-2980.37491</v>
+        <v>6182.89487</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>525.09879</v>
+        <v>9258.473609999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>3266.25195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>20441.20771</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>6700.515</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>249.23722</v>
+        <v>272.14292</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>276.40808</v>
+        <v>490.53307</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>320.10795</v>
+        <v>591.18462</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>238.61515</v>
+        <v>9701.792210000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>424.19361</v>
+        <v>7316.37685</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>225.46877</v>
+        <v>2695.48863</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>264.62252</v>
+        <v>5065.63917</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>443.25754</v>
+        <v>5021.17627</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>539.9179300000001</v>
+        <v>2964.99127</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1192.40113</v>
+        <v>10165.17299</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1850.68646</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>4375.81549</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>4380.451</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>196.57377</v>
+        <v>1014.78295</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-36.81096</v>
+        <v>-6417.106059999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-1472.32678</v>
+        <v>-669.9934000000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-3459.36602</v>
+        <v>149242.07777</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-2528.08791</v>
+        <v>-46063.5928</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-3340.28289</v>
+        <v>3317.63703</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-2194.98356</v>
+        <v>13552.69193</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-3894.18558</v>
+        <v>8669.35122</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-3520.29284</v>
+        <v>3217.9036</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-667.30234</v>
+        <v>-906.69938</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1415.56549</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>16065.39222</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2320.064</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>366</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>